--- a/graphruntime.xlsx
+++ b/graphruntime.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\git-course-2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\git-course-2021\nbody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8409BB-2FDB-4D76-B24C-E89AB2BEEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663A448C-ACCE-4255-824C-3B47CE506435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{C70DDF02-0E29-48AF-A67F-2DFAC20E65F0}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,16 @@
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="3">
@@ -93,12 +103,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -107,6 +120,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6A8759"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -225,10 +243,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5000</c:v>
                 </c:pt>
@@ -237,16 +255,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.02</c:v>
                 </c:pt>
@@ -255,6 +279,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>414.56799999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -270,7 +300,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>c++ D</c:v>
+            <c:v>c ++ D</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -298,10 +328,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5000</c:v>
                 </c:pt>
@@ -310,16 +340,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.7E-2</c:v>
                 </c:pt>
@@ -328,6 +364,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>453.09699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -343,7 +385,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>python E</c:v>
+            <c:v>Python E</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -371,10 +413,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5000</c:v>
                 </c:pt>
@@ -383,16 +425,22 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.44800000000000001</c:v>
                 </c:pt>
@@ -401,6 +449,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1044.075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1645,13 +1699,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082BD285-AE3A-446B-8CDB-3BFE9F22A82C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1"/>
@@ -1711,6 +1768,34 @@
       </c>
       <c r="D4">
         <v>7.577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="B5">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="C5">
+        <v>4.6280000000000001</v>
+      </c>
+      <c r="D5">
+        <v>66.305999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="B6">
+        <v>414.56799999999998</v>
+      </c>
+      <c r="C6">
+        <v>453.09699999999998</v>
+      </c>
+      <c r="D6">
+        <v>1044.075</v>
       </c>
     </row>
   </sheetData>
